--- a/team_specific_matrix/Apprentice_A.xlsx
+++ b/team_specific_matrix/Apprentice_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1111111111111111</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C2">
-        <v>0.5555555555555556</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.3333333333333333</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3076923076923077</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07692307692307693</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.07692307692307693</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.5384615384615384</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.8333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03448275862068965</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1724137931034483</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03448275862068965</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03448275862068965</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1379310344827586</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="R8">
-        <v>0.03448275862068965</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S8">
-        <v>0.5517241379310345</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="R9">
-        <v>0.3333333333333333</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1578947368421053</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.02631578947368421</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05263157894736842</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02631578947368421</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.07894736842105263</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="R10">
-        <v>0.05263157894736842</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="S10">
-        <v>0.6052631578947368</v>
+        <v>0.6081081081081081</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07142857142857142</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K11">
-        <v>0.2142857142857143</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.07142857142857142</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5714285714285714</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4285714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.1</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I15">
-        <v>0.1</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="J15">
-        <v>0.3</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.3</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K17">
-        <v>0.1</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.3</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.4</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="I18">
-        <v>0.2</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="J18">
-        <v>0.2</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01298701298701299</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2987012987012987</v>
+        <v>0.2836879432624114</v>
       </c>
       <c r="I19">
-        <v>0.03896103896103896</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="J19">
-        <v>0.2987012987012987</v>
+        <v>0.3049645390070922</v>
       </c>
       <c r="K19">
-        <v>0.1298701298701299</v>
+        <v>0.1134751773049645</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02597402597402598</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07792207792207792</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1168831168831169</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
   </sheetData>
